--- a/thresholds/IGCSE/design-and-technology/design-and-technology-thresholds.xlsx
+++ b/thresholds/IGCSE/design-and-technology/design-and-technology-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,77 +862,77 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12,32</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="D11" t="n">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="F11" t="n">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="G11" t="n">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I11" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13,33</t>
+          <t>AY 02,12,32</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E12" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F12" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G12" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -944,20 +944,20 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BY 02,12,42</t>
+          <t>AZ 02,13,33</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D13" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E13" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" t="n">
         <v>101</v>
@@ -966,14 +966,14 @@
         <v>85</v>
       </c>
       <c r="H13" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I13" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -985,7 +985,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>BZ 02,13,43</t>
+          <t>BY 02,12,42</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1026,36 +1026,36 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CX 02,11,51</t>
+          <t>BZ 02,13,43</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D15" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E15" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F15" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G15" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" t="n">
         <v>69</v>
       </c>
       <c r="I15" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1067,7 +1067,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CY 02,12,52</t>
+          <t>CX 02,11,51</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1108,36 +1108,36 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CZ 02,13,53</t>
+          <t>CY 02,12,52</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D17" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E17" t="n">
         <v>123</v>
       </c>
       <c r="F17" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G17" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H17" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I17" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1149,36 +1149,36 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>DY 12,32,82/92</t>
+          <t>CZ 02,13,53</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>200</v>
       </c>
       <c r="C18" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D18" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E18" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F18" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G18" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H18" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I18" t="n">
         <v>54</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1190,36 +1190,36 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FY 12,52,82/92</t>
+          <t>DY 12,32,82/92</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>200</v>
       </c>
       <c r="C19" t="n">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D19" t="n">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E19" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F19" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G19" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H19" t="n">
         <v>69</v>
       </c>
       <c r="I19" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1231,36 +1231,36 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>FZ 13,53,82/92</t>
+          <t>FY 12,52,82/92</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>200</v>
       </c>
       <c r="C20" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D20" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E20" t="n">
         <v>123</v>
       </c>
       <c r="F20" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G20" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H20" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I20" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1272,48 +1272,48 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11,31</t>
+          <t>FZ 13,53,82/92</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>200</v>
       </c>
       <c r="C21" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D21" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F21" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G21" t="n">
         <v>88</v>
       </c>
       <c r="H21" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I21" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12,32</t>
+          <t>AX 02,11,31</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1354,7 +1354,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13,33</t>
+          <t>AY 02,12,32</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1395,36 +1395,36 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BX 02,11,41</t>
+          <t>AZ 02,13,33</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D24" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E24" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F24" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G24" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" t="n">
         <v>61</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1436,7 +1436,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BY 02,12,42</t>
+          <t>BX 02,11,41</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1477,7 +1477,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BZ 02,13,43</t>
+          <t>BY 02,12,42</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1518,36 +1518,36 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>CX 02,11,51</t>
+          <t>BZ 02,13,43</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>200</v>
       </c>
       <c r="C27" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D27" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E27" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F27" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G27" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H27" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1559,7 +1559,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>CY 02,12,52</t>
+          <t>CX 02,11,51</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1600,7 +1600,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>CZ 02,13,53</t>
+          <t>CY 02,12,52</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1641,36 +1641,36 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>DY (DY1) 12,32,82</t>
+          <t>CZ 02,13,53</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>200</v>
       </c>
       <c r="C30" t="n">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D30" t="n">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E30" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F30" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G30" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H30" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I30" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1682,7 +1682,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>DY (DY2) 12,32,92</t>
+          <t>DY (DY1) 12,32,82</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1723,7 +1723,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>DZ (DZ1) 13,33,82</t>
+          <t>DY (DY2) 12,32,92</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1764,7 +1764,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>DZ (DZ2) 13,33,92</t>
+          <t>DZ (DZ1) 13,33,82</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1805,36 +1805,36 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>FY (FY1) 12,52,82</t>
+          <t>DZ (DZ2) 13,33,92</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>200</v>
       </c>
       <c r="C34" t="n">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D34" t="n">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E34" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F34" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G34" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H34" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I34" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1846,7 +1846,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>FY (FY2) 12,52,92</t>
+          <t>FY (FY1) 12,52,82</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1887,48 +1887,48 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11,31</t>
+          <t>FY (FY2) 12,52,92</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>200</v>
       </c>
       <c r="C36" t="n">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D36" t="n">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E36" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F36" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G36" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H36" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I36" t="n">
         <v>60</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12,32</t>
+          <t>AX 02,11,31</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1969,7 +1969,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13,33</t>
+          <t>AY 02,12,32</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2010,36 +2010,36 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>BX 02,11,41</t>
+          <t>AZ 02,13,33</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>200</v>
       </c>
       <c r="C39" t="n">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D39" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E39" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F39" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G39" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H39" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" t="n">
         <v>60</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2051,7 +2051,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>BY 02,12,42</t>
+          <t>BX 02,11,41</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2092,7 +2092,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>BZ 02,13,43</t>
+          <t>BY 02,12,42</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2133,7 +2133,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>CX 02,11,51</t>
+          <t>BZ 02,13,43</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2143,26 +2143,26 @@
         <v>167</v>
       </c>
       <c r="D42" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E42" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F42" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G42" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H42" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I42" t="n">
         <v>60</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2174,7 +2174,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>CY 02,12,52</t>
+          <t>CX 02,11,51</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2215,7 +2215,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>CZ 02,13,53</t>
+          <t>CY 02,12,52</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2256,36 +2256,36 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>DZ (DZ1) 13,33,82</t>
+          <t>CZ 02,13,53</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>200</v>
       </c>
       <c r="C45" t="n">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D45" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E45" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F45" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G45" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H45" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I45" t="n">
         <v>60</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2297,7 +2297,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>DZ (DZ2) 13,33,92</t>
+          <t>DZ (DZ1) 13,33,82</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2338,32 +2338,32 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11,31</t>
+          <t>DZ (DZ2) 13,33,92</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>200</v>
       </c>
       <c r="C47" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D47" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E47" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F47" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G47" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H47" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I47" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2372,14 +2372,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12,32</t>
+          <t>AX 02,11,31</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2420,7 +2420,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13,33</t>
+          <t>AY 02,12,32</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2461,36 +2461,36 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>BX 02,11,41</t>
+          <t>AZ 02,13,33</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>200</v>
       </c>
       <c r="C50" t="n">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D50" t="n">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E50" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F50" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G50" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H50" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I50" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2502,7 +2502,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>BY 02,12,42</t>
+          <t>BX 02,11,41</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2543,7 +2543,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>BZ 02,13,43</t>
+          <t>BY 02,12,42</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2584,32 +2584,32 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>CX 02,11,51</t>
+          <t>BZ 02,13,43</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>200</v>
       </c>
       <c r="C53" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E53" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F53" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H53" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I53" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>CY 02,12,52</t>
+          <t>CX 02,11,51</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2666,7 +2666,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>CZ 02,13,53</t>
+          <t>CY 02,12,52</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2707,7 +2707,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>FY (FY1) 12,52,82</t>
+          <t>CZ 02,13,53</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2748,7 +2748,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>FY (FY2) 12,52,92</t>
+          <t>FY (FY1) 12,52,82</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2789,48 +2789,48 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11,31</t>
+          <t>FY (FY2) 12,52,92</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>200</v>
       </c>
       <c r="C58" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D58" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E58" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F58" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G58" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H58" t="n">
         <v>74</v>
       </c>
       <c r="I58" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12,32</t>
+          <t>AX 02,11,31</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2871,7 +2871,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13,33</t>
+          <t>AY 02,12,32</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2912,36 +2912,36 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>BX 02,11,41</t>
+          <t>AZ 02,13,33</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>200</v>
       </c>
       <c r="C61" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D61" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E61" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F61" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G61" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H61" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I61" t="n">
         <v>61</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -2953,7 +2953,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>BY 02,12,42</t>
+          <t>BX 02,11,41</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2994,7 +2994,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>BZ 02,13,43</t>
+          <t>BY 02,12,42</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -3035,32 +3035,32 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>CX 02,11,51</t>
+          <t>BZ 02,13,43</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>200</v>
       </c>
       <c r="C64" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D64" t="n">
         <v>147</v>
       </c>
       <c r="E64" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F64" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G64" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H64" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I64" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3076,36 +3076,36 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>CY 02,12,52</t>
+          <t>CX 02,11,51</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>200</v>
       </c>
       <c r="C65" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D65" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E65" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F65" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G65" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H65" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I65" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3117,36 +3117,36 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>CZ 02,13,53</t>
+          <t>CY 02,12,52</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>200</v>
       </c>
       <c r="C66" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D66" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E66" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F66" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G66" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H66" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I66" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3158,36 +3158,36 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>DY 12,32,82</t>
+          <t>CZ 02,13,53</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>200</v>
       </c>
       <c r="C67" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D67" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E67" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F67" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G67" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H67" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I67" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3199,36 +3199,36 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>FY 12,52,82</t>
+          <t>DY 12,32,82</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>200</v>
       </c>
       <c r="C68" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D68" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E68" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F68" t="n">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G68" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H68" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I68" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3240,36 +3240,36 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>FZ 13,53,82</t>
+          <t>FY 12,52,82</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>200</v>
       </c>
       <c r="C69" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D69" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E69" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F69" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G69" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H69" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I69" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3281,48 +3281,48 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11,31</t>
+          <t>FZ 13,53,82</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>200</v>
       </c>
       <c r="C70" t="n">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D70" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E70" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F70" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G70" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H70" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I70" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12,32</t>
+          <t>AX 02,11,31</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3363,7 +3363,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13,33</t>
+          <t>AY 02,12,32</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3404,36 +3404,36 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>BX 02,11,41</t>
+          <t>AZ 02,13,33</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>200</v>
       </c>
       <c r="C73" t="n">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D73" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E73" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F73" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G73" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H73" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I73" t="n">
         <v>61</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -3445,7 +3445,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>BY 02,12,42</t>
+          <t>BX 02,11,41</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3486,7 +3486,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>BZ 02,13,43</t>
+          <t>BY 02,12,42</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3527,36 +3527,36 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>CX 02,11,51</t>
+          <t>BZ 02,13,43</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>200</v>
       </c>
       <c r="C76" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D76" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E76" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F76" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G76" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H76" t="n">
         <v>75</v>
       </c>
       <c r="I76" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>CY 02,12,52</t>
+          <t>CX 02,11,51</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3609,7 +3609,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>CZ 02,13,53</t>
+          <t>CY 02,12,52</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3650,36 +3650,36 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>DY (DY1) 12,32,82</t>
+          <t>CZ 02,13,53</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>200</v>
       </c>
       <c r="C79" t="n">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D79" t="n">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E79" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F79" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G79" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H79" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I79" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -3691,7 +3691,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>DY (DY2) 12,32,92</t>
+          <t>DY (DY1) 12,32,82</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3732,36 +3732,36 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>FY (FY1) 12,52,82</t>
+          <t>DY (DY2) 12,32,92</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>200</v>
       </c>
       <c r="C81" t="n">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D81" t="n">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E81" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F81" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G81" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H81" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I81" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -3773,7 +3773,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>FY (FY2) 12,52,92</t>
+          <t>FY (FY1) 12,52,82</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3814,7 +3814,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>FZ (FZ1) 13,53,82</t>
+          <t>FY (FY2) 12,52,92</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3855,7 +3855,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>FZ (FZ2) 13,53,92</t>
+          <t>FZ (FZ1) 13,53,82</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3888,6 +3888,47 @@
         </is>
       </c>
       <c r="K84" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>FZ (FZ2) 13,53,92</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>200</v>
+      </c>
+      <c r="C85" t="n">
+        <v>169</v>
+      </c>
+      <c r="D85" t="n">
+        <v>149</v>
+      </c>
+      <c r="E85" t="n">
+        <v>129</v>
+      </c>
+      <c r="F85" t="n">
+        <v>109</v>
+      </c>
+      <c r="G85" t="n">
+        <v>92</v>
+      </c>
+      <c r="H85" t="n">
+        <v>75</v>
+      </c>
+      <c r="I85" t="n">
+        <v>60</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
